--- a/datasets/google/dataF_google.xlsx
+++ b/datasets/google/dataF_google.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63e8f2e8cf98ffb/Guedes/Estudos/XPE-MBA_CienciaDados/Bootcamps/Projeto_Aplicado/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guedes\Documents\GitHub\tweets_market\datasets\google\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_349D82B15F7E6A0E62355476585DCE3A87426047" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0FE797-0123-4DB1-83C8-9BD3A9084005}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED3ABD-6DAD-4620-A075-217BE368642A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
